--- a/pythondeneme.xlsx
+++ b/pythondeneme.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Firma Adı</t>
+  </si>
   <si>
     <t>Adı</t>
   </si>
@@ -43,16 +46,34 @@
     <t>İzin Süresi</t>
   </si>
   <si>
-    <t>muhammet</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>BABALIK İZNİ</t>
-  </si>
-  <si>
-    <t>İzin Süresi Seçiniz</t>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>Nurben</t>
+  </si>
+  <si>
+    <t>12345567899</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>danışmanlık</t>
+  </si>
+  <si>
+    <t>YILLIK ÜCRETLİ İZİN</t>
+  </si>
+  <si>
+    <t>2022-08-14</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>29.08.2022</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -410,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,22 +465,43 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/pythondeneme.xlsx
+++ b/pythondeneme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Firma Adı</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Adı</t>
   </si>
   <si>
+    <t>Soyadı</t>
+  </si>
+  <si>
     <t>TC No</t>
   </si>
   <si>
@@ -49,22 +52,25 @@
     <t>AVD</t>
   </si>
   <si>
-    <t>Nurben</t>
-  </si>
-  <si>
-    <t>12345567899</t>
-  </si>
-  <si>
-    <t>asd@gmail.com</t>
-  </si>
-  <si>
-    <t>danışmanlık</t>
-  </si>
-  <si>
-    <t>YILLIK ÜCRETLİ İZİN</t>
-  </si>
-  <si>
-    <t>2022-08-14</t>
+    <t>Muhammet Ramazan</t>
+  </si>
+  <si>
+    <t>Yıkmış</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>ramazan.yikmis@icloud.com</t>
+  </si>
+  <si>
+    <t>bilgisayar mühendilsiği</t>
+  </si>
+  <si>
+    <t>BABALIK İZNİ</t>
+  </si>
+  <si>
+    <t>2022-08-21</t>
   </si>
   <si>
     <t>2022-08-28</t>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,40 +474,46 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/pythondeneme.xlsx
+++ b/pythondeneme.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Firma Adı</t>
   </si>
   <si>
-    <t>Adı</t>
-  </si>
-  <si>
-    <t>Soyadı</t>
+    <t>Kullanıcı Adı</t>
+  </si>
+  <si>
+    <t>Şifre</t>
   </si>
   <si>
     <t>TC No</t>
@@ -49,13 +49,10 @@
     <t>İzin Süresi</t>
   </si>
   <si>
-    <t>AVD</t>
-  </si>
-  <si>
-    <t>Muhammet Ramazan</t>
-  </si>
-  <si>
-    <t>Yıkmış</t>
+    <t>GEST</t>
+  </si>
+  <si>
+    <t>mete</t>
   </si>
   <si>
     <t>1234567890</t>
@@ -67,7 +64,7 @@
     <t>bilgisayar mühendilsiği</t>
   </si>
   <si>
-    <t>BABALIK İZNİ</t>
+    <t>ÜCRETSİZ İZİN</t>
   </si>
   <si>
     <t>2022-08-21</t>
@@ -76,10 +73,10 @@
     <t>2022-08-28</t>
   </si>
   <si>
-    <t>29.08.2022</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>2022-09-16</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -489,31 +486,31 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/pythondeneme.xlsx
+++ b/pythondeneme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Firma Adı</t>
   </si>
@@ -49,10 +49,13 @@
     <t>İzin Süresi</t>
   </si>
   <si>
-    <t>GEST</t>
-  </si>
-  <si>
-    <t>mete</t>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>derya</t>
+  </si>
+  <si>
+    <t>derya20</t>
   </si>
   <si>
     <t>1234567890</t>
@@ -67,16 +70,16 @@
     <t>ÜCRETSİZ İZİN</t>
   </si>
   <si>
+    <t>2022-08-14</t>
+  </si>
+  <si>
     <t>2022-08-21</t>
   </si>
   <si>
     <t>2022-08-28</t>
   </si>
   <si>
-    <t>2022-09-16</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -486,31 +489,31 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/pythondeneme.xlsx
+++ b/pythondeneme.xlsx
@@ -14,60 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>İzin Türü</t>
+  </si>
   <si>
     <t>Firma Adı</t>
   </si>
   <si>
+    <t>Adı Soyadı</t>
+  </si>
+  <si>
     <t>Kullanıcı Adı</t>
   </si>
   <si>
     <t>Şifre</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>TC No</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Çalıştığı Bölüm</t>
-  </si>
-  <si>
-    <t>İzin Türü</t>
-  </si>
-  <si>
-    <t>İzin Başlangıç</t>
-  </si>
-  <si>
-    <t>İzin Bitiş</t>
-  </si>
-  <si>
-    <t>İşe Başlama</t>
-  </si>
-  <si>
-    <t>İzin Süresi</t>
+    <t>İşe Giriş Tarihi</t>
+  </si>
+  <si>
+    <t>Yıllık İzin Hakediş Tarihi</t>
+  </si>
+  <si>
+    <t>Bugünün Tarihi</t>
+  </si>
+  <si>
+    <t>Çalışma Gün Sayısı</t>
+  </si>
+  <si>
+    <t>Hakettiği İzin Gün Sayısı</t>
+  </si>
+  <si>
+    <t>Kalan İzin Günü</t>
+  </si>
+  <si>
+    <t>Çalışılan Bölüm</t>
+  </si>
+  <si>
+    <t>İzin Başlangıç Tarihi</t>
+  </si>
+  <si>
+    <t>İzin Bitiş Tarihi</t>
+  </si>
+  <si>
+    <t>İşe Başlama Tarihi</t>
+  </si>
+  <si>
+    <t>Kullanılan İzin Günü</t>
+  </si>
+  <si>
+    <t>YILLIK ÜCRETLİ İZİN</t>
   </si>
   <si>
     <t>AVD</t>
   </si>
   <si>
-    <t>derya</t>
-  </si>
-  <si>
-    <t>derya20</t>
+    <t>Halil Ayhan</t>
+  </si>
+  <si>
+    <t>halil</t>
+  </si>
+  <si>
+    <t>halil20</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
   </si>
   <si>
     <t>1234567890</t>
   </si>
   <si>
-    <t>ramazan.yikmis@icloud.com</t>
-  </si>
-  <si>
-    <t>bilgisayar mühendilsiği</t>
-  </si>
-  <si>
-    <t>ÜCRETSİZ İZİN</t>
+    <t>(11, 8, 2020)</t>
+  </si>
+  <si>
+    <t>(11, 8, 2021)</t>
+  </si>
+  <si>
+    <t>(12, 8, 2022)</t>
+  </si>
+  <si>
+    <t>makine mühendilsiği</t>
   </si>
   <si>
     <t>2022-08-14</t>
@@ -76,10 +109,7 @@
     <t>2022-08-21</t>
   </si>
   <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -437,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,43 +507,85 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>731</v>
+      </c>
+      <c r="M2">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
